--- a/xlsx/代議民主制_intext.xlsx
+++ b/xlsx/代議民主制_intext.xlsx
@@ -29,7 +29,7 @@
     <t>民主</t>
   </si>
   <si>
-    <t>政策_政策_管理_代議民主制</t>
+    <t>体育运动_体育运动_草根_代議民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%8F%B2</t>
